--- a/KUtil/KMM1_MR01/_Data/sample_mast_자재요청서.xlsx
+++ b/KUtil/KMM1_MR01/_Data/sample_mast_자재요청서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Koin\KUtil\KMM1_MR01\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zDisk\github\Koin\KUtil\KMM1_MR01\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54256058-2A3E-4E87-86E7-3C80B5AB7E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1183F7C-360D-4628-8438-8564083C165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="18900" windowHeight="10965" xr2:uid="{E484FDD3-9268-4C8F-AC87-EFB7C30DA928}"/>
   </bookViews>
   <sheets>
     <sheet name="0906" sheetId="2" r:id="rId1"/>
